--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.5</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.67</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.8</v>
@@ -4189,7 +4189,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR17" t="n">
         <v>2.16</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.67</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -5276,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR22" t="n">
         <v>1.46</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.5</v>
@@ -5933,7 +5933,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR25" t="n">
         <v>0.98</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -7023,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR30" t="n">
         <v>1.91</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33" t="n">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>1.25</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.5</v>
@@ -8110,10 +8110,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR35" t="n">
         <v>1.25</v>
@@ -8331,7 +8331,7 @@
         <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR36" t="n">
         <v>1.64</v>
@@ -8982,7 +8982,7 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.25</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR42" t="n">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR43" t="n">
         <v>1.5</v>
@@ -9932,6 +9932,1096 @@
         <v>2.39</v>
       </c>
       <c r="BP43" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8266456</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>46003.23263888889</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['20', '58']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X44" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8266457</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>46004.125</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8266516</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>46004.23263888889</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['24', '46']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X46" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8266492</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>46004.32291666666</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X47" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8266491</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>46004.95833333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['50', '54', '57']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U48" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X48" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP48" t="n">
         <v>1.56</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,9 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['66', '73']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -458,6 +461,12 @@
   </si>
   <si>
     <t>['50', '54', '57']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['57', '74']</t>
   </si>
 </sst>
 </file>
@@ -819,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,7 +1087,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>2.86</v>
@@ -1490,7 +1499,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>2.78</v>
@@ -1568,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1777,7 +1786,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1902,7 +1911,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2108,7 +2117,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>3.55</v>
@@ -2314,7 +2323,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>3.42</v>
@@ -3138,7 +3147,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3219,7 +3228,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3344,7 +3353,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3422,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3756,7 +3765,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -3962,7 +3971,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4168,7 +4177,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4374,7 +4383,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4452,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ18">
         <v>0.25</v>
@@ -4580,7 +4589,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -4992,7 +5001,7 @@
         <v>85</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5198,7 +5207,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5279,7 +5288,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR22">
         <v>1.46</v>
@@ -5404,7 +5413,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6022,7 +6031,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>3.06</v>
@@ -6228,7 +6237,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>3.15</v>
@@ -6434,7 +6443,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>2.03</v>
@@ -6512,7 +6521,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6846,7 +6855,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -6927,7 +6936,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.91</v>
@@ -7052,7 +7061,7 @@
         <v>106</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>2.22</v>
@@ -7464,7 +7473,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>3.65</v>
@@ -7954,7 +7963,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35">
         <v>1.8</v>
@@ -8082,7 +8091,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8288,7 +8297,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8366,7 +8375,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8572,7 +8581,7 @@
         <v>0.75</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ38">
         <v>0.8</v>
@@ -8906,7 +8915,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -9112,7 +9121,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q41">
         <v>3.8</v>
@@ -9318,7 +9327,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9524,7 +9533,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q43">
         <v>2.5</v>
@@ -9605,7 +9614,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ43">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9730,7 +9739,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -9811,7 +9820,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR44">
         <v>1.02</v>
@@ -10014,10 +10023,10 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10142,7 +10151,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q46">
         <v>2.56</v>
@@ -10348,7 +10357,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10554,7 +10563,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q48">
         <v>2.95</v>
@@ -10711,6 +10720,418 @@
       </c>
       <c r="BP48">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>8266460</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>46010.16666666666</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>117</v>
+      </c>
+      <c r="P49" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q49">
+        <v>3.1</v>
+      </c>
+      <c r="R49">
+        <v>2.25</v>
+      </c>
+      <c r="S49">
+        <v>3.1</v>
+      </c>
+      <c r="T49">
+        <v>1.35</v>
+      </c>
+      <c r="U49">
+        <v>3.25</v>
+      </c>
+      <c r="V49">
+        <v>2.69</v>
+      </c>
+      <c r="W49">
+        <v>1.46</v>
+      </c>
+      <c r="X49">
+        <v>6.75</v>
+      </c>
+      <c r="Y49">
+        <v>1.09</v>
+      </c>
+      <c r="Z49">
+        <v>2.25</v>
+      </c>
+      <c r="AA49">
+        <v>3.45</v>
+      </c>
+      <c r="AB49">
+        <v>3</v>
+      </c>
+      <c r="AC49">
+        <v>1.05</v>
+      </c>
+      <c r="AD49">
+        <v>11.4</v>
+      </c>
+      <c r="AE49">
+        <v>1.29</v>
+      </c>
+      <c r="AF49">
+        <v>3.4</v>
+      </c>
+      <c r="AG49">
+        <v>1.75</v>
+      </c>
+      <c r="AH49">
+        <v>1.95</v>
+      </c>
+      <c r="AI49">
+        <v>1.7</v>
+      </c>
+      <c r="AJ49">
+        <v>2.07</v>
+      </c>
+      <c r="AK49">
+        <v>1.3</v>
+      </c>
+      <c r="AL49">
+        <v>1.25</v>
+      </c>
+      <c r="AM49">
+        <v>1.5</v>
+      </c>
+      <c r="AN49">
+        <v>1.25</v>
+      </c>
+      <c r="AO49">
+        <v>1.25</v>
+      </c>
+      <c r="AP49">
+        <v>1.6</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>1.37</v>
+      </c>
+      <c r="AS49">
+        <v>1.19</v>
+      </c>
+      <c r="AT49">
+        <v>2.56</v>
+      </c>
+      <c r="AU49">
+        <v>5</v>
+      </c>
+      <c r="AV49">
+        <v>3</v>
+      </c>
+      <c r="AW49">
+        <v>3</v>
+      </c>
+      <c r="AX49">
+        <v>10</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
+        <v>13</v>
+      </c>
+      <c r="BA49">
+        <v>2</v>
+      </c>
+      <c r="BB49">
+        <v>6</v>
+      </c>
+      <c r="BC49">
+        <v>8</v>
+      </c>
+      <c r="BD49">
+        <v>2.1</v>
+      </c>
+      <c r="BE49">
+        <v>6.55</v>
+      </c>
+      <c r="BF49">
+        <v>2.1</v>
+      </c>
+      <c r="BG49">
+        <v>1.13</v>
+      </c>
+      <c r="BH49">
+        <v>4.6</v>
+      </c>
+      <c r="BI49">
+        <v>1.3</v>
+      </c>
+      <c r="BJ49">
+        <v>2.8</v>
+      </c>
+      <c r="BK49">
+        <v>1.62</v>
+      </c>
+      <c r="BL49">
+        <v>2.35</v>
+      </c>
+      <c r="BM49">
+        <v>1.88</v>
+      </c>
+      <c r="BN49">
+        <v>1.83</v>
+      </c>
+      <c r="BO49">
+        <v>2.32</v>
+      </c>
+      <c r="BP49">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>8266493</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>46010.25</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>85</v>
+      </c>
+      <c r="P50" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>2.22</v>
+      </c>
+      <c r="S50">
+        <v>3</v>
+      </c>
+      <c r="T50">
+        <v>1.31</v>
+      </c>
+      <c r="U50">
+        <v>3.15</v>
+      </c>
+      <c r="V50">
+        <v>2.43</v>
+      </c>
+      <c r="W50">
+        <v>1.47</v>
+      </c>
+      <c r="X50">
+        <v>5.75</v>
+      </c>
+      <c r="Y50">
+        <v>1.07</v>
+      </c>
+      <c r="Z50">
+        <v>2.42</v>
+      </c>
+      <c r="AA50">
+        <v>3.5</v>
+      </c>
+      <c r="AB50">
+        <v>2.41</v>
+      </c>
+      <c r="AC50">
+        <v>1.02</v>
+      </c>
+      <c r="AD50">
+        <v>13.2</v>
+      </c>
+      <c r="AE50">
+        <v>1.22</v>
+      </c>
+      <c r="AF50">
+        <v>4</v>
+      </c>
+      <c r="AG50">
+        <v>1.7</v>
+      </c>
+      <c r="AH50">
+        <v>2.12</v>
+      </c>
+      <c r="AI50">
+        <v>1.62</v>
+      </c>
+      <c r="AJ50">
+        <v>2.2</v>
+      </c>
+      <c r="AK50">
+        <v>1.3</v>
+      </c>
+      <c r="AL50">
+        <v>1.25</v>
+      </c>
+      <c r="AM50">
+        <v>1.44</v>
+      </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <v>2.33</v>
+      </c>
+      <c r="AP50">
+        <v>1.6</v>
+      </c>
+      <c r="AQ50">
+        <v>2.5</v>
+      </c>
+      <c r="AR50">
+        <v>1.38</v>
+      </c>
+      <c r="AS50">
+        <v>1.42</v>
+      </c>
+      <c r="AT50">
+        <v>2.8</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>2</v>
+      </c>
+      <c r="AX50">
+        <v>9</v>
+      </c>
+      <c r="AY50">
+        <v>8</v>
+      </c>
+      <c r="AZ50">
+        <v>14</v>
+      </c>
+      <c r="BA50">
+        <v>6</v>
+      </c>
+      <c r="BB50">
+        <v>5</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>1.91</v>
+      </c>
+      <c r="BE50">
+        <v>8</v>
+      </c>
+      <c r="BF50">
+        <v>2.26</v>
+      </c>
+      <c r="BG50">
+        <v>1.2</v>
+      </c>
+      <c r="BH50">
+        <v>3.9</v>
+      </c>
+      <c r="BI50">
+        <v>1.37</v>
+      </c>
+      <c r="BJ50">
+        <v>2.8</v>
+      </c>
+      <c r="BK50">
+        <v>1.85</v>
+      </c>
+      <c r="BL50">
+        <v>2.12</v>
+      </c>
+      <c r="BM50">
+        <v>2.07</v>
+      </c>
+      <c r="BN50">
+        <v>1.76</v>
+      </c>
+      <c r="BO50">
+        <v>2.4</v>
+      </c>
+      <c r="BP50">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,9 @@
     <t>['66', '73']</t>
   </si>
   <si>
+    <t>['66', '84']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -467,6 +470,9 @@
   </si>
   <si>
     <t>['57', '74']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +1093,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>2.86</v>
@@ -1168,7 +1174,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1499,7 +1505,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q4">
         <v>2.78</v>
@@ -1911,7 +1917,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -1989,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2117,7 +2123,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>3.55</v>
@@ -2323,7 +2329,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>3.42</v>
@@ -2401,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2813,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3147,7 +3153,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3353,7 +3359,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3434,7 +3440,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3765,7 +3771,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -3843,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR15">
         <v>1.27</v>
@@ -3971,7 +3977,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4052,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR16">
         <v>2.18</v>
@@ -4177,7 +4183,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4255,10 +4261,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>2.16</v>
@@ -4383,7 +4389,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4589,7 +4595,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5001,7 +5007,7 @@
         <v>85</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5079,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5207,7 +5213,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5413,7 +5419,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6031,7 +6037,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>3.06</v>
@@ -6237,7 +6243,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>3.15</v>
@@ -6443,7 +6449,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>2.03</v>
@@ -6730,7 +6736,7 @@
         <v>3</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR29">
         <v>2.16</v>
@@ -6855,7 +6861,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7061,7 +7067,7 @@
         <v>106</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>2.22</v>
@@ -7139,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7348,7 +7354,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR32">
         <v>1.15</v>
@@ -7473,7 +7479,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>3.65</v>
@@ -7554,7 +7560,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
         <v>1.51</v>
@@ -7966,7 +7972,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.25</v>
@@ -8091,7 +8097,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8297,7 +8303,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8584,7 +8590,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ38">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.37</v>
@@ -8787,7 +8793,7 @@
         <v>0.33</v>
       </c>
       <c r="AP39">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ39">
         <v>0.25</v>
@@ -8915,7 +8921,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -9121,7 +9127,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>3.8</v>
@@ -9199,7 +9205,7 @@
         <v>1.2</v>
       </c>
       <c r="AP41">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9327,7 +9333,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9408,7 +9414,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1</v>
@@ -9533,7 +9539,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q43">
         <v>2.5</v>
@@ -9739,7 +9745,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10151,7 +10157,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>2.56</v>
@@ -10232,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR46">
         <v>1.6</v>
@@ -10357,7 +10363,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10435,10 +10441,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.38</v>
@@ -10563,7 +10569,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q48">
         <v>2.95</v>
@@ -10769,7 +10775,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10975,7 +10981,7 @@
         <v>85</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11132,6 +11138,624 @@
       </c>
       <c r="BP50">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>8266517</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>46011.125</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>118</v>
+      </c>
+      <c r="P51" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q51">
+        <v>3.2</v>
+      </c>
+      <c r="R51">
+        <v>2.62</v>
+      </c>
+      <c r="S51">
+        <v>2.44</v>
+      </c>
+      <c r="T51">
+        <v>1.2</v>
+      </c>
+      <c r="U51">
+        <v>4.15</v>
+      </c>
+      <c r="V51">
+        <v>1.96</v>
+      </c>
+      <c r="W51">
+        <v>1.76</v>
+      </c>
+      <c r="X51">
+        <v>4</v>
+      </c>
+      <c r="Y51">
+        <v>1.17</v>
+      </c>
+      <c r="Z51">
+        <v>3.55</v>
+      </c>
+      <c r="AA51">
+        <v>4.1</v>
+      </c>
+      <c r="AB51">
+        <v>1.85</v>
+      </c>
+      <c r="AC51">
+        <v>1.01</v>
+      </c>
+      <c r="AD51">
+        <v>23</v>
+      </c>
+      <c r="AE51">
+        <v>1.11</v>
+      </c>
+      <c r="AF51">
+        <v>6.2</v>
+      </c>
+      <c r="AG51">
+        <v>1.38</v>
+      </c>
+      <c r="AH51">
+        <v>2.9</v>
+      </c>
+      <c r="AI51">
+        <v>1.38</v>
+      </c>
+      <c r="AJ51">
+        <v>3</v>
+      </c>
+      <c r="AK51">
+        <v>1.8</v>
+      </c>
+      <c r="AL51">
+        <v>1.22</v>
+      </c>
+      <c r="AM51">
+        <v>1.3</v>
+      </c>
+      <c r="AN51">
+        <v>0.75</v>
+      </c>
+      <c r="AO51">
+        <v>1.8</v>
+      </c>
+      <c r="AP51">
+        <v>1.2</v>
+      </c>
+      <c r="AQ51">
+        <v>1.5</v>
+      </c>
+      <c r="AR51">
+        <v>1.78</v>
+      </c>
+      <c r="AS51">
+        <v>1.8</v>
+      </c>
+      <c r="AT51">
+        <v>3.58</v>
+      </c>
+      <c r="AU51">
+        <v>9</v>
+      </c>
+      <c r="AV51">
+        <v>5</v>
+      </c>
+      <c r="AW51">
+        <v>18</v>
+      </c>
+      <c r="AX51">
+        <v>11</v>
+      </c>
+      <c r="AY51">
+        <v>27</v>
+      </c>
+      <c r="AZ51">
+        <v>16</v>
+      </c>
+      <c r="BA51">
+        <v>7</v>
+      </c>
+      <c r="BB51">
+        <v>6</v>
+      </c>
+      <c r="BC51">
+        <v>13</v>
+      </c>
+      <c r="BD51">
+        <v>2.15</v>
+      </c>
+      <c r="BE51">
+        <v>7.5</v>
+      </c>
+      <c r="BF51">
+        <v>2</v>
+      </c>
+      <c r="BG51">
+        <v>1.18</v>
+      </c>
+      <c r="BH51">
+        <v>4.2</v>
+      </c>
+      <c r="BI51">
+        <v>1.3</v>
+      </c>
+      <c r="BJ51">
+        <v>3</v>
+      </c>
+      <c r="BK51">
+        <v>1.55</v>
+      </c>
+      <c r="BL51">
+        <v>2.33</v>
+      </c>
+      <c r="BM51">
+        <v>1.87</v>
+      </c>
+      <c r="BN51">
+        <v>1.87</v>
+      </c>
+      <c r="BO51">
+        <v>2.34</v>
+      </c>
+      <c r="BP51">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>8266458</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>46011.23263888889</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>85</v>
+      </c>
+      <c r="P52" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q52">
+        <v>2.7</v>
+      </c>
+      <c r="R52">
+        <v>2.23</v>
+      </c>
+      <c r="S52">
+        <v>3.6</v>
+      </c>
+      <c r="T52">
+        <v>1.33</v>
+      </c>
+      <c r="U52">
+        <v>3.02</v>
+      </c>
+      <c r="V52">
+        <v>2.77</v>
+      </c>
+      <c r="W52">
+        <v>1.44</v>
+      </c>
+      <c r="X52">
+        <v>6.25</v>
+      </c>
+      <c r="Y52">
+        <v>1.05</v>
+      </c>
+      <c r="Z52">
+        <v>1.7</v>
+      </c>
+      <c r="AA52">
+        <v>3.9</v>
+      </c>
+      <c r="AB52">
+        <v>4.5</v>
+      </c>
+      <c r="AC52">
+        <v>1.05</v>
+      </c>
+      <c r="AD52">
+        <v>11.9</v>
+      </c>
+      <c r="AE52">
+        <v>1.3</v>
+      </c>
+      <c r="AF52">
+        <v>3.54</v>
+      </c>
+      <c r="AG52">
+        <v>1.73</v>
+      </c>
+      <c r="AH52">
+        <v>2</v>
+      </c>
+      <c r="AI52">
+        <v>1.7</v>
+      </c>
+      <c r="AJ52">
+        <v>2</v>
+      </c>
+      <c r="AK52">
+        <v>1.29</v>
+      </c>
+      <c r="AL52">
+        <v>1.25</v>
+      </c>
+      <c r="AM52">
+        <v>1.67</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>0.8</v>
+      </c>
+      <c r="AP52">
+        <v>1.5</v>
+      </c>
+      <c r="AQ52">
+        <v>1.17</v>
+      </c>
+      <c r="AR52">
+        <v>1.6</v>
+      </c>
+      <c r="AS52">
+        <v>1.64</v>
+      </c>
+      <c r="AT52">
+        <v>3.24</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>4</v>
+      </c>
+      <c r="AW52">
+        <v>8</v>
+      </c>
+      <c r="AX52">
+        <v>10</v>
+      </c>
+      <c r="AY52">
+        <v>12</v>
+      </c>
+      <c r="AZ52">
+        <v>14</v>
+      </c>
+      <c r="BA52">
+        <v>8</v>
+      </c>
+      <c r="BB52">
+        <v>8</v>
+      </c>
+      <c r="BC52">
+        <v>16</v>
+      </c>
+      <c r="BD52">
+        <v>1.61</v>
+      </c>
+      <c r="BE52">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF52">
+        <v>2.75</v>
+      </c>
+      <c r="BG52">
+        <v>1.2</v>
+      </c>
+      <c r="BH52">
+        <v>3.9</v>
+      </c>
+      <c r="BI52">
+        <v>1.37</v>
+      </c>
+      <c r="BJ52">
+        <v>2.67</v>
+      </c>
+      <c r="BK52">
+        <v>1.87</v>
+      </c>
+      <c r="BL52">
+        <v>2.09</v>
+      </c>
+      <c r="BM52">
+        <v>2.03</v>
+      </c>
+      <c r="BN52">
+        <v>1.73</v>
+      </c>
+      <c r="BO52">
+        <v>2.66</v>
+      </c>
+      <c r="BP52">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>8270569</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>46011.32291666666</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>85</v>
+      </c>
+      <c r="P53" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q53">
+        <v>2.88</v>
+      </c>
+      <c r="R53">
+        <v>2.4</v>
+      </c>
+      <c r="S53">
+        <v>3.2</v>
+      </c>
+      <c r="T53">
+        <v>1.23</v>
+      </c>
+      <c r="U53">
+        <v>3.6</v>
+      </c>
+      <c r="V53">
+        <v>2.32</v>
+      </c>
+      <c r="W53">
+        <v>1.54</v>
+      </c>
+      <c r="X53">
+        <v>5.05</v>
+      </c>
+      <c r="Y53">
+        <v>1.1</v>
+      </c>
+      <c r="Z53">
+        <v>2.55</v>
+      </c>
+      <c r="AA53">
+        <v>3.75</v>
+      </c>
+      <c r="AB53">
+        <v>2.63</v>
+      </c>
+      <c r="AC53">
+        <v>1.02</v>
+      </c>
+      <c r="AD53">
+        <v>10</v>
+      </c>
+      <c r="AE53">
+        <v>1.14</v>
+      </c>
+      <c r="AF53">
+        <v>4.25</v>
+      </c>
+      <c r="AG53">
+        <v>1.65</v>
+      </c>
+      <c r="AH53">
+        <v>2.2</v>
+      </c>
+      <c r="AI53">
+        <v>1.53</v>
+      </c>
+      <c r="AJ53">
+        <v>2.42</v>
+      </c>
+      <c r="AK53">
+        <v>1.29</v>
+      </c>
+      <c r="AL53">
+        <v>1.23</v>
+      </c>
+      <c r="AM53">
+        <v>1.44</v>
+      </c>
+      <c r="AN53">
+        <v>0.8</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0.67</v>
+      </c>
+      <c r="AQ53">
+        <v>0.6</v>
+      </c>
+      <c r="AR53">
+        <v>1.38</v>
+      </c>
+      <c r="AS53">
+        <v>1.36</v>
+      </c>
+      <c r="AT53">
+        <v>2.74</v>
+      </c>
+      <c r="AU53">
+        <v>3</v>
+      </c>
+      <c r="AV53">
+        <v>2</v>
+      </c>
+      <c r="AW53">
+        <v>14</v>
+      </c>
+      <c r="AX53">
+        <v>5</v>
+      </c>
+      <c r="AY53">
+        <v>17</v>
+      </c>
+      <c r="AZ53">
+        <v>7</v>
+      </c>
+      <c r="BA53">
+        <v>6</v>
+      </c>
+      <c r="BB53">
+        <v>1</v>
+      </c>
+      <c r="BC53">
+        <v>7</v>
+      </c>
+      <c r="BD53">
+        <v>2.1</v>
+      </c>
+      <c r="BE53">
+        <v>7.4</v>
+      </c>
+      <c r="BF53">
+        <v>1.8</v>
+      </c>
+      <c r="BG53">
+        <v>1.2</v>
+      </c>
+      <c r="BH53">
+        <v>3.83</v>
+      </c>
+      <c r="BI53">
+        <v>1.39</v>
+      </c>
+      <c r="BJ53">
+        <v>2.75</v>
+      </c>
+      <c r="BK53">
+        <v>1.82</v>
+      </c>
+      <c r="BL53">
+        <v>2.2</v>
+      </c>
+      <c r="BM53">
+        <v>2.04</v>
+      </c>
+      <c r="BN53">
+        <v>1.73</v>
+      </c>
+      <c r="BO53">
+        <v>2.55</v>
+      </c>
+      <c r="BP53">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10" t="n">
         <v>2</v>
@@ -11816,7 +11816,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.17</v>
@@ -12331,6 +12331,224 @@
       </c>
       <c r="BP54" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8266477</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>46014.21875</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U55" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X55" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -12485,7 +12485,7 @@
         <v>2.86</v>
       </c>
       <c r="AU55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV55" t="n">
         <v>4</v>
@@ -12497,7 +12497,7 @@
         <v>4</v>
       </c>
       <c r="AY55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ55" t="n">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.17</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.5</v>
@@ -5715,7 +5715,7 @@
         <v>3</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR24" t="n">
         <v>2.31</v>
@@ -6369,7 +6369,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR27" t="n">
         <v>1.69</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ31" t="n">
         <v>2</v>
@@ -9418,7 +9418,7 @@
         <v>1.2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.5</v>
@@ -11598,7 +11598,7 @@
         <v>1.8</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.5</v>
@@ -12473,7 +12473,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR55" t="n">
         <v>1.52</v>
@@ -12549,6 +12549,224 @@
       </c>
       <c r="BP55" t="n">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8266515</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>46017.23263888889</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="n">
+        <v>9</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['42', '48', '75', '83']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['15', '45+1', '50', '68', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X56" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.5</v>
@@ -2445,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR18" t="n">
         <v>1.75</v>
@@ -4840,10 +4840,10 @@
         <v>0.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR20" t="n">
         <v>1.51</v>
@@ -6148,7 +6148,7 @@
         <v>1.67</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.5</v>
@@ -8985,7 +8985,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR39" t="n">
         <v>1.46</v>
@@ -9854,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ43" t="n">
         <v>1</v>
@@ -12767,6 +12767,224 @@
       </c>
       <c r="BP56" t="n">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>8266454</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>46018.23263888889</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['31', '67', '90+3']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['55', '71']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U57" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X57" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR31" t="n">
         <v>1.8</v>
@@ -8549,7 +8549,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR37" t="n">
         <v>1.49</v>
@@ -11816,7 +11816,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.17</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.4</v>
@@ -12930,13 +12930,13 @@
         <v>4</v>
       </c>
       <c r="AX57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY57" t="n">
         <v>9</v>
       </c>
       <c r="AZ57" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA57" t="n">
         <v>2</v>
@@ -12985,6 +12985,224 @@
       </c>
       <c r="BP57" t="n">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>8266462</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>46019.20833333334</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['10', '22', '80']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X58" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5" t="n">
         <v>2.5</v>
@@ -1791,7 +1791,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR19" t="n">
         <v>1.44</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.5</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR40" t="n">
         <v>1.85</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.6</v>
@@ -13203,6 +13203,224 @@
       </c>
       <c r="BP58" t="n">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8266487</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>46020.20833333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>6</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['7', '42', '47', '55', '90']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.5</v>
@@ -3099,7 +3099,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.5</v>
@@ -7023,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR30" t="n">
         <v>1.91</v>
@@ -7892,7 +7892,7 @@
         <v>1.25</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.5</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.5</v>
@@ -9857,7 +9857,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR43" t="n">
         <v>1.5</v>
@@ -10072,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="AP44" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.5</v>
@@ -10293,7 +10293,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR45" t="n">
         <v>1.36</v>
@@ -11165,7 +11165,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR49" t="n">
         <v>1.37</v>
@@ -13421,6 +13421,224 @@
       </c>
       <c r="BP59" t="n">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>8266463</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>46022.20833333334</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['22', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X60" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.2</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.6</v>
@@ -5933,7 +5933,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR25" t="n">
         <v>0.98</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.33</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR36" t="n">
         <v>1.64</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.5</v>
@@ -10947,7 +10947,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR48" t="n">
         <v>1.67</v>
@@ -13639,6 +13639,224 @@
       </c>
       <c r="BP60" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8266519</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>46023.04166666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['7', '16', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U61" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X61" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.5</v>
@@ -5715,7 +5715,7 @@
         <v>3</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR24" t="n">
         <v>2.31</v>
@@ -6369,7 +6369,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR27" t="n">
         <v>1.69</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.75</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.5</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.33</v>
@@ -11380,7 +11380,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50" t="n">
         <v>2.5</v>
@@ -12473,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR55" t="n">
         <v>1.52</v>
@@ -12691,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR56" t="n">
         <v>2</v>
@@ -13857,6 +13857,224 @@
       </c>
       <c r="BP61" t="n">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8266495</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>46023.20833333334</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X62" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
         <v>2.5</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.5</v>
@@ -7241,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR31" t="n">
         <v>1.8</v>
@@ -8549,7 +8549,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR37" t="n">
         <v>1.49</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.6</v>
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR58" t="n">
         <v>1.56</v>
@@ -13342,7 +13342,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.5</v>
@@ -14017,13 +14017,13 @@
         <v>4</v>
       </c>
       <c r="AW62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX62" t="n">
         <v>10</v>
       </c>
       <c r="AY62" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ62" t="n">
         <v>14</v>
@@ -14075,6 +14075,224 @@
       </c>
       <c r="BP62" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8266496</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>46024.23263888889</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="n">
+        <v>5</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['45+5', '53', '69']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['12', '79']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U63" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -13581,13 +13581,13 @@
         <v>7</v>
       </c>
       <c r="AW60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX60" t="n">
         <v>10</v>
       </c>
       <c r="AY60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ60" t="n">
         <v>17</v>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.67</v>
@@ -1791,7 +1791,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.5</v>
@@ -4625,7 +4625,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>1.44</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.8</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.17</v>
@@ -9203,7 +9203,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>1.85</v>
@@ -13345,7 +13345,7 @@
         <v>2</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR59" t="n">
         <v>1.93</v>
@@ -14293,6 +14293,224 @@
       </c>
       <c r="BP63" t="n">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>8266521</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>46025.125</v>
+      </c>
+      <c r="F64" t="n">
+        <v>11</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['6', '59', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U64" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X64" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR17" t="n">
         <v>2.16</v>
@@ -8113,7 +8113,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR35" t="n">
         <v>1.25</v>
@@ -9639,7 +9639,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR42" t="n">
         <v>1</v>
@@ -10729,7 +10729,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR47" t="n">
         <v>1.38</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR51" t="n">
         <v>1.78</v>
@@ -14511,6 +14511,224 @@
       </c>
       <c r="BP64" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>8266573</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>46025.23263888889</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X65" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -14465,13 +14465,13 @@
         <v>9</v>
       </c>
       <c r="BA64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB64" t="n">
         <v>2</v>
       </c>
       <c r="BC64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD64" t="n">
         <v>1.4</v>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -14447,13 +14447,13 @@
         <v>2.46</v>
       </c>
       <c r="AU64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV64" t="n">
         <v>4</v>
       </c>
       <c r="AW64" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX64" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.43</v>
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.2</v>
@@ -5061,7 +5061,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR21" t="n">
         <v>1.35</v>
@@ -6148,7 +6148,7 @@
         <v>1.67</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.5</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.23</v>
@@ -9517,7 +9517,7 @@
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45997.23263888889</v>
+        <v>45997.27083333334</v>
       </c>
       <c r="F42" t="n">
         <v>7</v>
@@ -9854,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.33</v>
@@ -12255,7 +12255,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR54" t="n">
         <v>1.75</v>
@@ -12906,7 +12906,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.2</v>
@@ -14729,6 +14729,224 @@
       </c>
       <c r="BP65" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8266520</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>46026.23263888889</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['8', '20', '22', '55']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.6</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.2</v>
@@ -5279,7 +5279,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR22" t="n">
         <v>1.46</v>
@@ -8546,7 +8546,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.8</v>
@@ -8764,7 +8764,7 @@
         <v>0.75</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.17</v>
@@ -10075,7 +10075,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR44" t="n">
         <v>1.02</v>
@@ -11162,7 +11162,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.33</v>
@@ -11383,7 +11383,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR50" t="n">
         <v>1.38</v>
@@ -14892,13 +14892,13 @@
         <v>16</v>
       </c>
       <c r="AX66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY66" t="n">
         <v>22</v>
       </c>
       <c r="AZ66" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA66" t="n">
         <v>12</v>
@@ -14946,6 +14946,224 @@
         <v>2.54</v>
       </c>
       <c r="BP66" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8266549</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>46027.20833333334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>17</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X67" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BP67" t="n">
         <v>1.51</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.8</v>
@@ -3099,7 +3099,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR30" t="n">
         <v>1.91</v>
@@ -9857,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR43" t="n">
         <v>1.5</v>
@@ -10293,7 +10293,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR45" t="n">
         <v>1.36</v>
@@ -11165,7 +11165,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR49" t="n">
         <v>1.37</v>
@@ -11816,7 +11816,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.17</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.67</v>
@@ -13124,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.8</v>
@@ -13563,7 +13563,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR60" t="n">
         <v>0.99</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.43</v>
@@ -15165,6 +15165,224 @@
       </c>
       <c r="BP67" t="n">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>8266568</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>46028.20833333334</v>
+      </c>
+      <c r="F68" t="n">
+        <v>20</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>['8', '20', '22', '55']</t>
+  </si>
+  <si>
+    <t>['6', '73']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1437,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>1.67</v>
@@ -1852,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3703,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -5354,7 +5357,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR22">
         <v>1.46</v>
@@ -5969,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>1.8</v>
@@ -7411,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
         <v>1.17</v>
@@ -9886,7 +9889,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ44">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR44">
         <v>1.02</v>
@@ -11122,7 +11125,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR50">
         <v>1.38</v>
@@ -14003,7 +14006,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14624,7 +14627,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR67">
         <v>1.33</v>
@@ -14906,6 +14909,212 @@
       </c>
       <c r="BP68">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>8266498</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>46031.23263888889</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>85</v>
+      </c>
+      <c r="P69" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q69">
+        <v>3.94</v>
+      </c>
+      <c r="R69">
+        <v>2.1</v>
+      </c>
+      <c r="S69">
+        <v>2.82</v>
+      </c>
+      <c r="T69">
+        <v>1.37</v>
+      </c>
+      <c r="U69">
+        <v>2.85</v>
+      </c>
+      <c r="V69">
+        <v>2.99</v>
+      </c>
+      <c r="W69">
+        <v>1.38</v>
+      </c>
+      <c r="X69">
+        <v>6.25</v>
+      </c>
+      <c r="Y69">
+        <v>1.08</v>
+      </c>
+      <c r="Z69">
+        <v>3.2</v>
+      </c>
+      <c r="AA69">
+        <v>3.45</v>
+      </c>
+      <c r="AB69">
+        <v>2.15</v>
+      </c>
+      <c r="AC69">
+        <v>1</v>
+      </c>
+      <c r="AD69">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE69">
+        <v>1.27</v>
+      </c>
+      <c r="AF69">
+        <v>3.18</v>
+      </c>
+      <c r="AG69">
+        <v>1.85</v>
+      </c>
+      <c r="AH69">
+        <v>1.85</v>
+      </c>
+      <c r="AI69">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69">
+        <v>2.04</v>
+      </c>
+      <c r="AK69">
+        <v>1.34</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>1.33</v>
+      </c>
+      <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>2.2</v>
+      </c>
+      <c r="AP69">
+        <v>1.67</v>
+      </c>
+      <c r="AQ69">
+        <v>2.33</v>
+      </c>
+      <c r="AR69">
+        <v>1.34</v>
+      </c>
+      <c r="AS69">
+        <v>1.48</v>
+      </c>
+      <c r="AT69">
+        <v>2.82</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>6</v>
+      </c>
+      <c r="AW69">
+        <v>10</v>
+      </c>
+      <c r="AX69">
+        <v>8</v>
+      </c>
+      <c r="AY69">
+        <v>13</v>
+      </c>
+      <c r="AZ69">
+        <v>14</v>
+      </c>
+      <c r="BA69">
+        <v>3</v>
+      </c>
+      <c r="BB69">
+        <v>5</v>
+      </c>
+      <c r="BC69">
+        <v>8</v>
+      </c>
+      <c r="BD69">
+        <v>1.8</v>
+      </c>
+      <c r="BE69">
+        <v>8.5</v>
+      </c>
+      <c r="BF69">
+        <v>2.36</v>
+      </c>
+      <c r="BG69">
+        <v>1.27</v>
+      </c>
+      <c r="BH69">
+        <v>3.24</v>
+      </c>
+      <c r="BI69">
+        <v>1.57</v>
+      </c>
+      <c r="BJ69">
+        <v>2.4</v>
+      </c>
+      <c r="BK69">
+        <v>2.18</v>
+      </c>
+      <c r="BL69">
+        <v>1.89</v>
+      </c>
+      <c r="BM69">
+        <v>2.23</v>
+      </c>
+      <c r="BN69">
+        <v>1.56</v>
+      </c>
+      <c r="BO69">
+        <v>3.02</v>
+      </c>
+      <c r="BP69">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.6</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.17</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR17" t="n">
         <v>2.16</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.67</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
         <v>1.35</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>1.23</v>
@@ -8113,7 +8113,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR35" t="n">
         <v>1.25</v>
@@ -8546,7 +8546,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.8</v>
@@ -8764,7 +8764,7 @@
         <v>0.75</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.17</v>
@@ -8982,7 +8982,7 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.67</v>
@@ -9639,7 +9639,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR42" t="n">
         <v>1</v>
@@ -10726,10 +10726,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR47" t="n">
         <v>1.38</v>
@@ -11162,7 +11162,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.14</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR51" t="n">
         <v>1.78</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.6</v>
@@ -12255,7 +12255,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR54" t="n">
         <v>1.75</v>
@@ -14653,7 +14653,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR65" t="n">
         <v>1.63</v>
@@ -14871,7 +14871,7 @@
         <v>2</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR66" t="n">
         <v>1.38</v>
@@ -15086,7 +15086,7 @@
         <v>2.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ67" t="n">
         <v>2.33</v>
@@ -15819,6 +15819,442 @@
       </c>
       <c r="BP70" t="n">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>8266564</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>46032.23263888889</v>
+      </c>
+      <c r="F71" t="n">
+        <v>12</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['31', '48', '62']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U71" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X71" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>8266461</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>46032.32291666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['24', '45+1', '54']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X72" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.14</v>
@@ -3317,7 +3317,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR16" t="n">
         <v>2.18</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.33</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.67</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR33" t="n">
         <v>1.51</v>
@@ -10511,7 +10511,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR46" t="n">
         <v>1.6</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.8</v>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR53" t="n">
         <v>1.38</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -16255,6 +16255,224 @@
       </c>
       <c r="BP72" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>8266524</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>46032.95833333334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>12</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="n">
+        <v>4</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['56', '65']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['14', '44']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X73" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.8</v>
@@ -5933,7 +5933,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR25" t="n">
         <v>0.98</v>
@@ -8331,7 +8331,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR36" t="n">
         <v>1.64</v>
@@ -10947,7 +10947,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR48" t="n">
         <v>1.67</v>
@@ -11816,7 +11816,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.17</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.67</v>
@@ -13124,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.8</v>
@@ -13781,7 +13781,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR61" t="n">
         <v>1.99</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.63</v>
@@ -15304,7 +15304,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.14</v>
@@ -16473,6 +16473,224 @@
       </c>
       <c r="BP73" t="n">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>8266526</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>46033.125</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X74" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -16633,13 +16633,13 @@
         <v>4</v>
       </c>
       <c r="AW74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX74" t="n">
         <v>3</v>
       </c>
       <c r="AY74" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ74" t="n">
         <v>7</v>
@@ -16648,10 +16648,10 @@
         <v>7</v>
       </c>
       <c r="BB74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC74" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD74" t="n">
         <v>1.49</v>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.8</v>
@@ -5279,7 +5279,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>1.46</v>
@@ -10075,7 +10075,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR44" t="n">
         <v>1.02</v>
@@ -11383,7 +11383,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR50" t="n">
         <v>1.38</v>
@@ -11816,7 +11816,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.17</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.67</v>
@@ -13124,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.8</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.63</v>
@@ -15089,7 +15089,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR67" t="n">
         <v>1.33</v>
@@ -15304,7 +15304,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.14</v>
@@ -15525,7 +15525,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR69" t="n">
         <v>1.34</v>
@@ -16612,7 +16612,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74" t="n">
         <v>2</v>
@@ -16691,6 +16691,224 @@
       </c>
       <c r="BP74" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8266499</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>46038.23263888889</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['70', '81']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X75" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.17</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -7023,7 +7023,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR30" t="n">
         <v>1.91</v>
@@ -8982,7 +8982,7 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.67</v>
@@ -9857,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR43" t="n">
         <v>1.5</v>
@@ -10293,7 +10293,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR45" t="n">
         <v>1.36</v>
@@ -10726,7 +10726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.63</v>
@@ -11165,7 +11165,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR49" t="n">
         <v>1.37</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.67</v>
@@ -13563,7 +13563,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR60" t="n">
         <v>0.99</v>
@@ -15307,7 +15307,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR68" t="n">
         <v>1.82</v>
@@ -16176,7 +16176,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ72" t="n">
         <v>1</v>
@@ -16909,6 +16909,224 @@
       </c>
       <c r="BP75" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8266518</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>46038.32291666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>13</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['30', '50']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X76" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -17072,13 +17072,13 @@
         <v>4</v>
       </c>
       <c r="AX76" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY76" t="n">
         <v>9</v>
       </c>
       <c r="AZ76" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA76" t="n">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.5</v>
@@ -2009,7 +2009,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR25" t="n">
         <v>0.98</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.63</v>
@@ -8331,7 +8331,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR36" t="n">
         <v>1.64</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.38</v>
@@ -10947,7 +10947,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR48" t="n">
         <v>1.67</v>
@@ -11380,7 +11380,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ50" t="n">
         <v>2</v>
@@ -13781,7 +13781,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR61" t="n">
         <v>1.99</v>
@@ -13996,7 +13996,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.67</v>
@@ -16615,7 +16615,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR74" t="n">
         <v>1.79</v>
@@ -17127,6 +17127,224 @@
       </c>
       <c r="BP76" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>8266525</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>46039.125</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['15', '38']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U77" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="X77" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.63</v>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
         <v>1.27</v>
@@ -4840,7 +4840,7 @@
         <v>0.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.67</v>
@@ -6148,7 +6148,7 @@
         <v>1.67</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.5</v>
@@ -6805,7 +6805,7 @@
         <v>3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>2.16</v>
@@ -7459,7 +7459,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>1.15</v>
@@ -8767,7 +8767,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR38" t="n">
         <v>1.37</v>
@@ -9854,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.38</v>
@@ -11819,7 +11819,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR52" t="n">
         <v>1.6</v>
@@ -12906,7 +12906,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.67</v>
@@ -14868,7 +14868,7 @@
         <v>0.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ66" t="n">
         <v>1</v>
@@ -17345,6 +17345,224 @@
       </c>
       <c r="BP77" t="n">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>8266528</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>46039.23263888889</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['6', '90+7']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X78" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -16755,73 +16755,73 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AC75" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE75" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AF75" t="n">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="AG75" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AH75" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AI75" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AK75" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AL75" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AM75" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AN75" t="n">
         <v>1.14</v>
@@ -16872,43 +16872,43 @@
         <v>7</v>
       </c>
       <c r="BD75" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="BE75" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="BF75" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BG75" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BH75" t="n">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="BI75" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BJ75" t="n">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="BK75" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BL75" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="BM75" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="BN75" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="BO75" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="BP75" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -17191,73 +17191,73 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AC77" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD77" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AE77" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AF77" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AG77" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AH77" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="AI77" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AK77" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AL77" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AM77" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AN77" t="n">
         <v>1.33</v>
@@ -17302,49 +17302,49 @@
         <v>12</v>
       </c>
       <c r="BB77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC77" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD77" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="BE77" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BF77" t="n">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="BG77" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH77" t="n">
-        <v>4.47</v>
+        <v>0</v>
       </c>
       <c r="BI77" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="BJ77" t="n">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="BK77" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BL77" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="BM77" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="BN77" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BO77" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="BP77" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -17409,73 +17409,73 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AC78" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE78" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AF78" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="AG78" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AH78" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AI78" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AJ78" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="AK78" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AL78" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AM78" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AN78" t="n">
         <v>2</v>
@@ -17526,43 +17526,43 @@
         <v>6</v>
       </c>
       <c r="BD78" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="BE78" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="BF78" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="BG78" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="BH78" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="BI78" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="BJ78" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="BK78" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BL78" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BM78" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BN78" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="BO78" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="BP78" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -16755,73 +16755,73 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X75" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="Y75" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Z75" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AA75" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AB75" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AD75" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AE75" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF75" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AG75" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH75" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AI75" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AJ75" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AK75" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AL75" t="n">
         <v>0</v>
       </c>
       <c r="AM75" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AN75" t="n">
         <v>1.14</v>
@@ -16872,43 +16872,43 @@
         <v>7</v>
       </c>
       <c r="BD75" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BE75" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="BF75" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BG75" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="BH75" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="BI75" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BJ75" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="BK75" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BL75" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="BM75" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="BN75" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="BO75" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="BP75" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="76">
@@ -17191,73 +17191,73 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>4.56</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Z77" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AA77" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AI77" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AK77" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AL77" t="n">
         <v>0</v>
       </c>
       <c r="AM77" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AN77" t="n">
         <v>1.33</v>
@@ -17302,49 +17302,49 @@
         <v>12</v>
       </c>
       <c r="BB77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC77" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD77" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BE77" t="n">
-        <v>0</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="BF77" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="BG77" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BH77" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="BI77" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BJ77" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="BK77" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BL77" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="BM77" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="BN77" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="BO77" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BP77" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="78">
@@ -17409,73 +17409,73 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X78" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y78" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Z78" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AA78" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AB78" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE78" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF78" t="n">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="AG78" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH78" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AI78" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AJ78" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AK78" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AL78" t="n">
         <v>0</v>
       </c>
       <c r="AM78" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AN78" t="n">
         <v>2</v>
@@ -17526,43 +17526,43 @@
         <v>6</v>
       </c>
       <c r="BD78" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="BE78" t="n">
-        <v>0</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="BF78" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BG78" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BH78" t="n">
-        <v>0</v>
+        <v>6.23</v>
       </c>
       <c r="BI78" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="BJ78" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="BK78" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="BL78" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="BM78" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="BN78" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="BO78" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="BP78" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR19" t="n">
         <v>1.44</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.67</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -9203,7 +9203,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR40" t="n">
         <v>1.85</v>
@@ -13345,7 +13345,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR59" t="n">
         <v>1.93</v>
@@ -14435,7 +14435,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR64" t="n">
         <v>1.15</v>
@@ -17563,6 +17563,224 @@
       </c>
       <c r="BP78" t="n">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8266529</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>46040.125</v>
+      </c>
+      <c r="F79" t="n">
+        <v>13</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['29', '63']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ7" t="n">
         <v>2.14</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.33</v>
@@ -5715,7 +5715,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR24" t="n">
         <v>2.31</v>
@@ -6369,7 +6369,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR27" t="n">
         <v>1.69</v>
@@ -7892,7 +7892,7 @@
         <v>1.25</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.5</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.63</v>
@@ -10072,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ44" t="n">
         <v>2</v>
@@ -12473,7 +12473,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR55" t="n">
         <v>1.52</v>
@@ -12691,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR56" t="n">
         <v>2</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.38</v>
@@ -13999,7 +13999,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR62" t="n">
         <v>1.35</v>
@@ -17290,13 +17290,13 @@
         <v>9</v>
       </c>
       <c r="AX77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY77" t="n">
         <v>16</v>
       </c>
       <c r="AZ77" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA77" t="n">
         <v>12</v>
@@ -17352,7 +17352,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>8266528</v>
+        <v>8266527</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -17365,204 +17365,204 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>46039.23263888889</v>
+        <v>46039.16666666666</v>
       </c>
       <c r="F78" t="n">
         <v>13</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Melbourne Victory FC</t>
+          <t>Macarthur</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X78" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU78" t="n">
         <v>3</v>
       </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>['6', '90+7']</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>['75']</t>
-        </is>
-      </c>
-      <c r="Q78" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S78" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U78" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="V78" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W78" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X78" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>4</v>
-      </c>
       <c r="AV78" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY78" t="n">
         <v>11</v>
       </c>
-      <c r="AX78" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ78" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="BA78" t="n">
         <v>5</v>
       </c>
       <c r="BB78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC78" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD78" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="BE78" t="n">
-        <v>8.789999999999999</v>
+        <v>6.65</v>
       </c>
       <c r="BF78" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BG78" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="BH78" t="n">
-        <v>6.23</v>
+        <v>4.1</v>
       </c>
       <c r="BI78" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BJ78" t="n">
-        <v>3.92</v>
+        <v>3.1</v>
       </c>
       <c r="BK78" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="BL78" t="n">
-        <v>2.74</v>
+        <v>2.35</v>
       </c>
       <c r="BM78" t="n">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="BN78" t="n">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="BO78" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="BP78" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="79">
@@ -17570,7 +17570,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>8266529</v>
+        <v>8266528</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -17583,204 +17583,422 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>46040.125</v>
+        <v>46039.23263888889</v>
       </c>
       <c r="F79" t="n">
         <v>13</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Melbourne Victory FC</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6', '90+7']</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>['29', '63']</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE79" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF79" t="n">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="AG79" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH79" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AI79" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AK79" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AL79" t="n">
         <v>0</v>
       </c>
       <c r="AM79" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AN79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO79" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
-        <v>1.99</v>
+        <v>1.53</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="AT79" t="n">
-        <v>3.25</v>
+        <v>3.14</v>
       </c>
       <c r="AU79" t="n">
         <v>4</v>
       </c>
       <c r="AV79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA79" t="n">
         <v>5</v>
       </c>
-      <c r="AW79" t="n">
+      <c r="BB79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8266529</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>46040.125</v>
+      </c>
+      <c r="F80" t="n">
+        <v>13</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['29', '63']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U80" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X80" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW80" t="n">
         <v>8</v>
       </c>
-      <c r="AX79" t="n">
+      <c r="AX80" t="n">
         <v>7</v>
       </c>
-      <c r="AY79" t="n">
+      <c r="AY80" t="n">
         <v>12</v>
       </c>
-      <c r="AZ79" t="n">
+      <c r="AZ80" t="n">
         <v>12</v>
       </c>
-      <c r="BA79" t="n">
+      <c r="BA80" t="n">
         <v>7</v>
       </c>
-      <c r="BB79" t="n">
+      <c r="BB80" t="n">
         <v>4</v>
       </c>
-      <c r="BC79" t="n">
+      <c r="BC80" t="n">
         <v>11</v>
       </c>
-      <c r="BD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP79" t="n">
-        <v>0</v>
+      <c r="BD80" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.63</v>
@@ -4625,7 +4625,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR19" t="n">
         <v>1.44</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.8</v>
@@ -9203,7 +9203,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR40" t="n">
         <v>1.85</v>
@@ -9418,7 +9418,7 @@
         <v>1.2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.5</v>
@@ -11598,7 +11598,7 @@
         <v>1.8</v>
       </c>
       <c r="AP51" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.63</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.57</v>
@@ -13345,7 +13345,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR59" t="n">
         <v>1.93</v>
@@ -14435,7 +14435,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR64" t="n">
         <v>1.15</v>
@@ -17923,7 +17923,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR80" t="n">
         <v>1.99</v>
@@ -17999,6 +17999,224 @@
       </c>
       <c r="BP80" t="n">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>8266467</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>46045.23263888889</v>
+      </c>
+      <c r="F81" t="n">
+        <v>14</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['1', '56', '70', '89']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U81" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.67</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.67</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.38</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.14</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.14</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.14</v>
@@ -18159,13 +18159,13 @@
         <v>7</v>
       </c>
       <c r="AW81" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX81" t="n">
         <v>10</v>
       </c>
       <c r="AY81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ81" t="n">
         <v>17</v>
@@ -18217,6 +18217,224 @@
       </c>
       <c r="BP81" t="n">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8266531</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>46046.04166666666</v>
+      </c>
+      <c r="F82" t="n">
+        <v>14</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['12', '58']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['44', '89']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S82" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X82" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.57</v>
@@ -3317,7 +3317,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.5</v>
@@ -3971,7 +3971,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
         <v>2.18</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ25" t="n">
         <v>2.14</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR33" t="n">
         <v>1.51</v>
@@ -10511,7 +10511,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR46" t="n">
         <v>1.6</v>
@@ -12037,7 +12037,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR53" t="n">
         <v>1.38</v>
@@ -14432,7 +14432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.14</v>
@@ -15522,7 +15522,7 @@
         <v>2.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ69" t="n">
         <v>2</v>
@@ -16397,7 +16397,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.7</v>
@@ -18435,6 +18435,224 @@
       </c>
       <c r="BP82" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>8266530</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>46046.125</v>
+      </c>
+      <c r="F83" t="n">
+        <v>14</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['41', '60']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['56', '70', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X83" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR14" t="n">
         <v>0.8100000000000001</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.67</v>
@@ -5497,7 +5497,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR23" t="n">
         <v>1.1</v>
@@ -6151,7 +6151,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR26" t="n">
         <v>1.6</v>
@@ -7895,7 +7895,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR34" t="n">
         <v>1.22</v>
@@ -8546,7 +8546,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.8</v>
@@ -8764,7 +8764,7 @@
         <v>0.75</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR41" t="n">
         <v>1.83</v>
@@ -11162,7 +11162,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.38</v>
@@ -15086,7 +15086,7 @@
         <v>2.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
         <v>2</v>
@@ -15958,7 +15958,7 @@
         <v>1.43</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.63</v>
@@ -18653,6 +18653,224 @@
       </c>
       <c r="BP83" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>8266522</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>46046.23263888889</v>
+      </c>
+      <c r="F84" t="n">
+        <v>14</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>4</v>
+      </c>
+      <c r="L84" t="n">
+        <v>6</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="n">
+        <v>8</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['6', '9', '34', '62', '70', '90+3']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['24', '84']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X84" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.29</v>
@@ -2663,7 +2663,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -7241,7 +7241,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR31" t="n">
         <v>1.8</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.63</v>
@@ -8549,7 +8549,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR37" t="n">
         <v>1.49</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.38</v>
@@ -11380,7 +11380,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50" t="n">
         <v>2</v>
@@ -13127,7 +13127,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR58" t="n">
         <v>1.56</v>
@@ -13996,7 +13996,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.57</v>
@@ -14217,7 +14217,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR63" t="n">
         <v>1.93</v>
@@ -17266,7 +17266,7 @@
         <v>2</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ77" t="n">
         <v>2.14</v>
@@ -18871,6 +18871,224 @@
       </c>
       <c r="BP84" t="n">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>8266532</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>46047.20833333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>14</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X85" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ5" t="n">
         <v>2</v>
@@ -4189,7 +4189,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR17" t="n">
         <v>2.16</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.29</v>
@@ -8113,7 +8113,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR35" t="n">
         <v>1.25</v>
@@ -9639,7 +9639,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR42" t="n">
         <v>1</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -10729,7 +10729,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR47" t="n">
         <v>1.38</v>
@@ -11601,7 +11601,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR51" t="n">
         <v>1.78</v>
@@ -13342,7 +13342,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.14</v>
@@ -14214,7 +14214,7 @@
         <v>2.25</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.5</v>
@@ -14653,7 +14653,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR65" t="n">
         <v>1.63</v>
@@ -15740,7 +15740,7 @@
         <v>0.2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.67</v>
@@ -15961,7 +15961,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR71" t="n">
         <v>1.24</v>
@@ -19089,6 +19089,224 @@
       </c>
       <c r="BP85" t="n">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8266534</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>46048.15277777778</v>
+      </c>
+      <c r="F86" t="n">
+        <v>14</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['53', '64', '79', '82']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X86" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -19243,13 +19243,13 @@
         <v>3.54</v>
       </c>
       <c r="AU86" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV86" t="n">
         <v>3</v>
       </c>
       <c r="AW86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX86" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.38</v>
@@ -3535,7 +3535,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR14" t="n">
         <v>0.8100000000000001</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -5497,7 +5497,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR23" t="n">
         <v>1.1</v>
@@ -6151,7 +6151,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR26" t="n">
         <v>1.6</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.57</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ33" t="n">
         <v>1</v>
@@ -7895,7 +7895,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR34" t="n">
         <v>1.22</v>
@@ -9421,7 +9421,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR41" t="n">
         <v>1.83</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48" t="n">
         <v>2.14</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -16394,7 +16394,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -18795,7 +18795,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR84" t="n">
         <v>1.26</v>
@@ -19307,6 +19307,224 @@
       </c>
       <c r="BP86" t="n">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>8266533</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>46052.125</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>4</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['23', '52']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['73', '77']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X87" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.44</v>
@@ -1137,7 +1137,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.67</v>
@@ -5715,7 +5715,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR24" t="n">
         <v>2.31</v>
@@ -6148,7 +6148,7 @@
         <v>1.67</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.25</v>
@@ -6369,7 +6369,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR27" t="n">
         <v>1.69</v>
@@ -9854,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.38</v>
@@ -12473,7 +12473,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR55" t="n">
         <v>1.52</v>
@@ -12691,7 +12691,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR56" t="n">
         <v>2</v>
@@ -12906,7 +12906,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.67</v>
@@ -13999,7 +13999,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.35</v>
@@ -14868,7 +14868,7 @@
         <v>0.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ66" t="n">
         <v>1</v>
@@ -17487,7 +17487,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR78" t="n">
         <v>1</v>
@@ -17702,7 +17702,7 @@
         <v>1.17</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -19525,6 +19525,224 @@
       </c>
       <c r="BP87" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>8266536</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>46052.25347222222</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U88" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X88" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.14</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7" t="n">
         <v>2.14</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>0.88</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>1</v>
       </c>
       <c r="AR15" t="n">
         <v>1.27</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.44</v>
@@ -4407,7 +4407,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR18" t="n">
         <v>1.75</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.14</v>
@@ -4843,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR20" t="n">
         <v>1.51</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -5279,7 +5279,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR22" t="n">
         <v>1.46</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.5</v>
@@ -6802,10 +6802,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR29" t="n">
         <v>2.16</v>
@@ -7023,7 +7023,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR30" t="n">
         <v>1.91</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.5</v>
@@ -7459,7 +7459,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR32" t="n">
         <v>1.15</v>
@@ -7892,7 +7892,7 @@
         <v>1.25</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.25</v>
@@ -8767,7 +8767,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR38" t="n">
         <v>1.37</v>
@@ -8982,10 +8982,10 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR39" t="n">
         <v>1.46</v>
@@ -9418,7 +9418,7 @@
         <v>1.2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.25</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.44</v>
@@ -9857,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR43" t="n">
         <v>1.5</v>
@@ -10072,10 +10072,10 @@
         <v>2</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR44" t="n">
         <v>1.02</v>
@@ -10293,7 +10293,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR45" t="n">
         <v>1.36</v>
@@ -10726,7 +10726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.44</v>
@@ -11165,7 +11165,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR49" t="n">
         <v>1.37</v>
@@ -11383,7 +11383,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR50" t="n">
         <v>1.38</v>
@@ -11598,7 +11598,7 @@
         <v>1.8</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.44</v>
@@ -11819,7 +11819,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR52" t="n">
         <v>1.6</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ53" t="n">
         <v>1</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.5</v>
@@ -12909,7 +12909,7 @@
         <v>2</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR57" t="n">
         <v>1.44</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR60" t="n">
         <v>0.99</v>
@@ -15089,7 +15089,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR67" t="n">
         <v>1.33</v>
@@ -15307,7 +15307,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR68" t="n">
         <v>1.82</v>
@@ -15525,7 +15525,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR69" t="n">
         <v>1.34</v>
@@ -15743,7 +15743,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR70" t="n">
         <v>1.97</v>
@@ -16176,7 +16176,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ72" t="n">
         <v>1</v>
@@ -16833,7 +16833,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR75" t="n">
         <v>1.76</v>
@@ -17048,10 +17048,10 @@
         <v>1.14</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR76" t="n">
         <v>1.55</v>
@@ -17484,7 +17484,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.5</v>
@@ -17705,7 +17705,7 @@
         <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR79" t="n">
         <v>1.53</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.14</v>
@@ -18138,7 +18138,7 @@
         <v>1.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.14</v>
@@ -19743,6 +19743,878 @@
       </c>
       <c r="BP88" t="n">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>8266535</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>46053.125</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>5</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['18', '52', '64', '90+1']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U89" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X89" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>8266538</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>46053.23263888889</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>4</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['10', '49', '55', '68']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U90" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X90" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>8266537</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>46053.32291666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>15</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['75', '90']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X91" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8266539</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>46054.125</v>
+      </c>
+      <c r="F92" t="n">
+        <v>15</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U92" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -20560,13 +20560,13 @@
         <v>6</v>
       </c>
       <c r="AX92" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY92" t="n">
         <v>7</v>
       </c>
       <c r="AZ92" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA92" t="n">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.22</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR15" t="n">
         <v>1.27</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.57</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.75</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.5</v>
@@ -6805,7 +6805,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR29" t="n">
         <v>2.16</v>
@@ -7241,7 +7241,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR31" t="n">
         <v>1.8</v>
@@ -7459,7 +7459,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR32" t="n">
         <v>1.15</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ33" t="n">
         <v>1</v>
@@ -8546,10 +8546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR37" t="n">
         <v>1.49</v>
@@ -8764,10 +8764,10 @@
         <v>0.75</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR38" t="n">
         <v>1.37</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48" t="n">
         <v>2.14</v>
@@ -11162,7 +11162,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.22</v>
@@ -11819,7 +11819,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR52" t="n">
         <v>1.6</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR58" t="n">
         <v>1.56</v>
@@ -14217,7 +14217,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR63" t="n">
         <v>1.93</v>
@@ -15086,7 +15086,7 @@
         <v>2.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.75</v>
@@ -15958,7 +15958,7 @@
         <v>1.43</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.44</v>
@@ -16394,7 +16394,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -17705,7 +17705,7 @@
         <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR79" t="n">
         <v>1.53</v>
@@ -18792,7 +18792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.25</v>
@@ -19013,7 +19013,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR85" t="n">
         <v>1.47</v>
@@ -19446,7 +19446,7 @@
         <v>1.29</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.25</v>
@@ -20539,7 +20539,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR92" t="n">
         <v>1.02</v>
@@ -20615,6 +20615,442 @@
       </c>
       <c r="BP92" t="n">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>8266540</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>46059.125</v>
+      </c>
+      <c r="F93" t="n">
+        <v>16</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['39', '84']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['10', '44', '77']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X93" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>8266541</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>46059.23263888889</v>
+      </c>
+      <c r="F94" t="n">
+        <v>16</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>4</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['60', '71']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['36', '90']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U94" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.5</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.57</v>
@@ -2881,7 +2881,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR14" t="n">
         <v>0.8100000000000001</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
@@ -4189,7 +4189,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR17" t="n">
         <v>2.16</v>
@@ -4840,7 +4840,7 @@
         <v>0.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.57</v>
@@ -5061,7 +5061,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR21" t="n">
         <v>1.35</v>
@@ -5497,7 +5497,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR23" t="n">
         <v>1.1</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR25" t="n">
         <v>0.98</v>
@@ -6148,10 +6148,10 @@
         <v>1.67</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR26" t="n">
         <v>1.6</v>
@@ -6584,10 +6584,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR28" t="n">
         <v>1.23</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.22</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.11</v>
@@ -7895,7 +7895,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR34" t="n">
         <v>1.22</v>
@@ -8110,10 +8110,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR35" t="n">
         <v>1.25</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR36" t="n">
         <v>1.64</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.14</v>
@@ -9421,7 +9421,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR41" t="n">
         <v>1.83</v>
@@ -9639,7 +9639,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR42" t="n">
         <v>1</v>
@@ -9854,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.22</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.22</v>
@@ -10729,7 +10729,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR47" t="n">
         <v>1.38</v>
@@ -10947,7 +10947,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR48" t="n">
         <v>1.67</v>
@@ -11380,7 +11380,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.75</v>
@@ -11601,7 +11601,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR51" t="n">
         <v>1.78</v>
@@ -12255,7 +12255,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR54" t="n">
         <v>1.75</v>
@@ -12906,7 +12906,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.57</v>
@@ -13778,10 +13778,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR61" t="n">
         <v>1.99</v>
@@ -13996,7 +13996,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.5</v>
@@ -14432,7 +14432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.14</v>
@@ -14653,7 +14653,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR65" t="n">
         <v>1.63</v>
@@ -14868,10 +14868,10 @@
         <v>0.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR66" t="n">
         <v>1.38</v>
@@ -15522,7 +15522,7 @@
         <v>2.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.75</v>
@@ -15961,7 +15961,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR71" t="n">
         <v>1.24</v>
@@ -16179,7 +16179,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR72" t="n">
         <v>1.44</v>
@@ -16615,7 +16615,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR74" t="n">
         <v>1.79</v>
@@ -17266,10 +17266,10 @@
         <v>2</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR77" t="n">
         <v>1.38</v>
@@ -17702,7 +17702,7 @@
         <v>1.17</v>
       </c>
       <c r="AP79" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.11</v>
@@ -18356,10 +18356,10 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR82" t="n">
         <v>2.07</v>
@@ -18574,7 +18574,7 @@
         <v>0.67</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83" t="n">
         <v>1</v>
@@ -18795,7 +18795,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR84" t="n">
         <v>1.26</v>
@@ -19010,7 +19010,7 @@
         <v>1.8</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.43</v>
@@ -19231,7 +19231,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR86" t="n">
         <v>1.91</v>
@@ -19449,7 +19449,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR87" t="n">
         <v>1.71</v>
@@ -19664,7 +19664,7 @@
         <v>1.57</v>
       </c>
       <c r="AP88" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.5</v>
@@ -20996,13 +20996,13 @@
         <v>14</v>
       </c>
       <c r="AX94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY94" t="n">
         <v>19</v>
       </c>
       <c r="AZ94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA94" t="n">
         <v>5</v>
@@ -21051,6 +21051,878 @@
       </c>
       <c r="BP94" t="n">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>8266542</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>46060.04166666666</v>
+      </c>
+      <c r="F95" t="n">
+        <v>16</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X95" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>8266543</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>46060.125</v>
+      </c>
+      <c r="F96" t="n">
+        <v>16</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['45+2', '79']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X96" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>8266544</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>46060.23263888889</v>
+      </c>
+      <c r="F97" t="n">
+        <v>16</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X97" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>8266548</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>46061.125</v>
+      </c>
+      <c r="F98" t="n">
+        <v>16</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['53', '64']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['45+2', '51', '72']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S98" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U98" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W98" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.22</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.11</v>
@@ -4625,7 +4625,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR19" t="n">
         <v>1.44</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.25</v>
@@ -5933,7 +5933,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR25" t="n">
         <v>0.98</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.25</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.3</v>
@@ -8331,7 +8331,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR36" t="n">
         <v>1.64</v>
@@ -8982,7 +8982,7 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.57</v>
@@ -9203,7 +9203,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR40" t="n">
         <v>1.85</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.22</v>
@@ -10726,7 +10726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.3</v>
@@ -10947,7 +10947,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR48" t="n">
         <v>1.67</v>
@@ -11380,7 +11380,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.75</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ53" t="n">
         <v>1</v>
@@ -13345,7 +13345,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR59" t="n">
         <v>1.93</v>
@@ -13781,7 +13781,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR61" t="n">
         <v>1.99</v>
@@ -13996,7 +13996,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.5</v>
@@ -14435,7 +14435,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR64" t="n">
         <v>1.15</v>
@@ -16176,7 +16176,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.25</v>
@@ -16615,7 +16615,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR74" t="n">
         <v>1.79</v>
@@ -17048,7 +17048,7 @@
         <v>1.14</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.22</v>
@@ -17266,10 +17266,10 @@
         <v>2</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR77" t="n">
         <v>1.38</v>
@@ -17923,7 +17923,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR80" t="n">
         <v>1.99</v>
@@ -18141,7 +18141,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR81" t="n">
         <v>2.02</v>
@@ -19010,7 +19010,7 @@
         <v>1.8</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.43</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.75</v>
@@ -21626,7 +21626,7 @@
         <v>1.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.22</v>
@@ -21847,7 +21847,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR98" t="n">
         <v>1.59</v>
@@ -21923,6 +21923,442 @@
       </c>
       <c r="BP98" t="n">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>8266545</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>46066.23263888889</v>
+      </c>
+      <c r="F99" t="n">
+        <v>17</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>4</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['17', '43']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['68', '71']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U99" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>8266546</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>46066.32291666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>17</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['15', '47', '81']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U100" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.75</v>
@@ -3099,7 +3099,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.22</v>
@@ -7023,7 +7023,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR30" t="n">
         <v>1.91</v>
@@ -9857,7 +9857,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.5</v>
@@ -10293,7 +10293,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR45" t="n">
         <v>1.36</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -11165,7 +11165,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR49" t="n">
         <v>1.37</v>
@@ -13342,7 +13342,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.13</v>
@@ -13563,7 +13563,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR60" t="n">
         <v>0.99</v>
@@ -14214,7 +14214,7 @@
         <v>2.25</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.43</v>
@@ -15307,7 +15307,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR68" t="n">
         <v>1.82</v>
@@ -15740,7 +15740,7 @@
         <v>0.2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.57</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR76" t="n">
         <v>1.55</v>
@@ -19228,7 +19228,7 @@
         <v>1.63</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.3</v>
@@ -19885,7 +19885,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR89" t="n">
         <v>2.07</v>
@@ -22359,6 +22359,224 @@
       </c>
       <c r="BP100" t="n">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>8266550</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>46067.125</v>
+      </c>
+      <c r="F101" t="n">
+        <v>17</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U101" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X101" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.25</v>
@@ -3317,7 +3317,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR16" t="n">
         <v>2.18</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.5</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.11</v>
@@ -7677,7 +7677,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR33" t="n">
         <v>1.51</v>
@@ -10511,7 +10511,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR46" t="n">
         <v>1.6</v>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR53" t="n">
         <v>1.38</v>
@@ -16397,7 +16397,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR73" t="n">
         <v>1.7</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.13</v>
@@ -18577,7 +18577,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR83" t="n">
         <v>1.34</v>
@@ -20100,7 +20100,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.57</v>
@@ -22577,6 +22577,224 @@
       </c>
       <c r="BP101" t="n">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>8266551</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>46067.23263888889</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['18', '87']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U102" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.25</v>
@@ -5279,7 +5279,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR22" t="n">
         <v>1.46</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.5</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.11</v>
@@ -10075,7 +10075,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR44" t="n">
         <v>1.02</v>
@@ -11383,7 +11383,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR50" t="n">
         <v>1.38</v>
@@ -15089,7 +15089,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR67" t="n">
         <v>1.33</v>
@@ -15525,7 +15525,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR69" t="n">
         <v>1.34</v>
@@ -16833,7 +16833,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR75" t="n">
         <v>1.76</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.13</v>
@@ -20100,7 +20100,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.57</v>
@@ -20321,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR91" t="n">
         <v>1.52</v>
@@ -22716,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.25</v>
@@ -22795,6 +22795,224 @@
       </c>
       <c r="BP102" t="n">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>8266494</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>46070.20833333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U103" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X103" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.3</v>
@@ -1573,7 +1573,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.25</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR15" t="n">
         <v>1.27</v>
@@ -4840,7 +4840,7 @@
         <v>0.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.57</v>
@@ -5276,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR22" t="n">
         <v>1.46</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.5</v>
@@ -6148,7 +6148,7 @@
         <v>1.67</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.22</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.5</v>
@@ -6802,10 +6802,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR29" t="n">
         <v>2.16</v>
@@ -7023,7 +7023,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR30" t="n">
         <v>1.91</v>
@@ -7241,7 +7241,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR31" t="n">
         <v>1.8</v>
@@ -7459,7 +7459,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR32" t="n">
         <v>1.15</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.25</v>
@@ -8549,7 +8549,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR37" t="n">
         <v>1.49</v>
@@ -8767,7 +8767,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR38" t="n">
         <v>1.37</v>
@@ -9854,10 +9854,10 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR43" t="n">
         <v>1.5</v>
@@ -10075,7 +10075,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR44" t="n">
         <v>1.02</v>
@@ -10293,7 +10293,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR45" t="n">
         <v>1.36</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ48" t="n">
         <v>2.33</v>
@@ -11165,7 +11165,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR49" t="n">
         <v>1.37</v>
@@ -11383,7 +11383,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR50" t="n">
         <v>1.38</v>
@@ -11816,10 +11816,10 @@
         <v>0.8</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR52" t="n">
         <v>1.6</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.25</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.5</v>
@@ -12906,7 +12906,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.57</v>
@@ -13124,10 +13124,10 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR58" t="n">
         <v>1.56</v>
@@ -13563,7 +13563,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR60" t="n">
         <v>0.99</v>
@@ -14217,7 +14217,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR63" t="n">
         <v>1.93</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.3</v>
@@ -14868,7 +14868,7 @@
         <v>0.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.25</v>
@@ -15089,7 +15089,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR67" t="n">
         <v>1.33</v>
@@ -15304,10 +15304,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR68" t="n">
         <v>1.82</v>
@@ -15525,7 +15525,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR69" t="n">
         <v>1.34</v>
@@ -16394,7 +16394,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.25</v>
@@ -16612,7 +16612,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ74" t="n">
         <v>2.33</v>
@@ -16830,10 +16830,10 @@
         <v>2.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR75" t="n">
         <v>1.76</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR76" t="n">
         <v>1.55</v>
@@ -17702,10 +17702,10 @@
         <v>1.17</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR79" t="n">
         <v>1.53</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.13</v>
@@ -19013,7 +19013,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR85" t="n">
         <v>1.47</v>
@@ -19446,7 +19446,7 @@
         <v>1.29</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.22</v>
@@ -19664,7 +19664,7 @@
         <v>1.57</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.5</v>
@@ -19885,7 +19885,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR89" t="n">
         <v>2.07</v>
@@ -20100,7 +20100,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.57</v>
@@ -20321,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR91" t="n">
         <v>1.52</v>
@@ -20539,7 +20539,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR92" t="n">
         <v>1.02</v>
@@ -20754,10 +20754,10 @@
         <v>0.88</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR93" t="n">
         <v>1.63</v>
@@ -20975,7 +20975,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR94" t="n">
         <v>1.33</v>
@@ -21844,7 +21844,7 @@
         <v>2.14</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.33</v>
@@ -22501,7 +22501,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR101" t="n">
         <v>1.96</v>
@@ -22716,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.25</v>
@@ -22934,10 +22934,10 @@
         <v>1.75</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR103" t="n">
         <v>1.94</v>
@@ -23013,6 +23013,878 @@
       </c>
       <c r="BP103" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>8266555</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>46073.23263888889</v>
+      </c>
+      <c r="F104" t="n">
+        <v>18</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>4</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>4</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['12', '29', '48', '90+1']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U104" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X104" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>8266500</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>46074.04166666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>18</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>4</v>
+      </c>
+      <c r="K105" t="n">
+        <v>4</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="n">
+        <v>5</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['24', '30', '41', '45+5', '74']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U105" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X105" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>8266558</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>46074.125</v>
+      </c>
+      <c r="F106" t="n">
+        <v>18</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>8266552</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>46074.23263888889</v>
+      </c>
+      <c r="F107" t="n">
+        <v>18</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="n">
+        <v>4</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['20', '64', '89']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X107" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
         <v>2.33</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.3</v>
@@ -2445,7 +2445,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.3</v>
@@ -4407,7 +4407,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR18" t="n">
         <v>1.75</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.13</v>
@@ -4843,7 +4843,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR20" t="n">
         <v>1.51</v>
@@ -5715,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR24" t="n">
         <v>2.31</v>
@@ -6369,7 +6369,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR27" t="n">
         <v>1.69</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.25</v>
@@ -7892,7 +7892,7 @@
         <v>1.25</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.22</v>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR39" t="n">
         <v>1.46</v>
@@ -9418,7 +9418,7 @@
         <v>1.2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.22</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.3</v>
@@ -10072,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.8</v>
@@ -11598,7 +11598,7 @@
         <v>1.8</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.3</v>
@@ -12473,7 +12473,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR55" t="n">
         <v>1.52</v>
@@ -12688,10 +12688,10 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR56" t="n">
         <v>2</v>
@@ -12909,7 +12909,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR57" t="n">
         <v>1.44</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.09</v>
@@ -13999,7 +13999,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR62" t="n">
         <v>1.35</v>
@@ -15743,7 +15743,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR70" t="n">
         <v>1.97</v>
@@ -17484,10 +17484,10 @@
         <v>1.67</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR78" t="n">
         <v>1</v>
@@ -18138,7 +18138,7 @@
         <v>1.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.13</v>
@@ -19667,7 +19667,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR88" t="n">
         <v>1.54</v>
@@ -19882,7 +19882,7 @@
         <v>1.38</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.09</v>
@@ -20103,7 +20103,7 @@
         <v>2</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR90" t="n">
         <v>1.85</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.3</v>
@@ -23885,6 +23885,442 @@
       </c>
       <c r="BP107" t="n">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>8266554</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>46075.125</v>
+      </c>
+      <c r="F108" t="n">
+        <v>18</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>3</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="n">
+        <v>5</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['55', '77', '89']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['8', '69']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X108" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>8266559</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>46075.16666666666</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U109" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.33</v>
@@ -1355,7 +1355,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.8</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR14" t="n">
         <v>0.8100000000000001</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR16" t="n">
         <v>2.18</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR18" t="n">
         <v>1.75</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.13</v>
@@ -4843,7 +4843,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR20" t="n">
         <v>1.51</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR23" t="n">
         <v>1.1</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR25" t="n">
         <v>0.98</v>
@@ -6151,7 +6151,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR26" t="n">
         <v>1.6</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.09</v>
@@ -7241,7 +7241,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR31" t="n">
         <v>1.8</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.3</v>
@@ -7677,7 +7677,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR33" t="n">
         <v>1.51</v>
@@ -7892,10 +7892,10 @@
         <v>1.25</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR34" t="n">
         <v>1.22</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR36" t="n">
         <v>1.64</v>
@@ -8546,10 +8546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR37" t="n">
         <v>1.49</v>
@@ -8764,7 +8764,7 @@
         <v>0.75</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.3</v>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR39" t="n">
         <v>1.46</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.13</v>
@@ -9421,7 +9421,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR41" t="n">
         <v>1.83</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.3</v>
@@ -10072,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.8</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR46" t="n">
         <v>1.6</v>
@@ -10947,7 +10947,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR48" t="n">
         <v>1.67</v>
@@ -11162,7 +11162,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.09</v>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR53" t="n">
         <v>1.38</v>
@@ -12909,7 +12909,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR57" t="n">
         <v>1.44</v>
@@ -13127,7 +13127,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR58" t="n">
         <v>1.56</v>
@@ -13342,7 +13342,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.13</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.09</v>
@@ -13778,10 +13778,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR61" t="n">
         <v>1.99</v>
@@ -14214,10 +14214,10 @@
         <v>2.25</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR63" t="n">
         <v>1.93</v>
@@ -14432,7 +14432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.13</v>
@@ -15086,7 +15086,7 @@
         <v>2.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.8</v>
@@ -15522,7 +15522,7 @@
         <v>2.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.8</v>
@@ -15740,10 +15740,10 @@
         <v>0.2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR70" t="n">
         <v>1.97</v>
@@ -15958,7 +15958,7 @@
         <v>1.43</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.3</v>
@@ -16397,7 +16397,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR73" t="n">
         <v>1.7</v>
@@ -16615,7 +16615,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR74" t="n">
         <v>1.79</v>
@@ -17269,7 +17269,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR77" t="n">
         <v>1.38</v>
@@ -17484,7 +17484,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.33</v>
@@ -18356,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.25</v>
@@ -18574,10 +18574,10 @@
         <v>0.67</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR83" t="n">
         <v>1.34</v>
@@ -18792,10 +18792,10 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR84" t="n">
         <v>1.26</v>
@@ -19013,7 +19013,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR85" t="n">
         <v>1.47</v>
@@ -19228,7 +19228,7 @@
         <v>1.63</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.3</v>
@@ -19449,7 +19449,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR87" t="n">
         <v>1.71</v>
@@ -20103,7 +20103,7 @@
         <v>2</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR90" t="n">
         <v>1.85</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.3</v>
@@ -20972,10 +20972,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR94" t="n">
         <v>1.33</v>
@@ -21190,7 +21190,7 @@
         <v>1.44</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.3</v>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.25</v>
@@ -21629,7 +21629,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR97" t="n">
         <v>1.56</v>
@@ -21847,7 +21847,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR98" t="n">
         <v>1.59</v>
@@ -22283,7 +22283,7 @@
         <v>1</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR100" t="n">
         <v>1.5</v>
@@ -22498,7 +22498,7 @@
         <v>1.22</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.09</v>
@@ -22719,7 +22719,7 @@
         <v>2</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR102" t="n">
         <v>1.86</v>
@@ -23155,7 +23155,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR104" t="n">
         <v>1.6</v>
@@ -24024,10 +24024,10 @@
         <v>0.57</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR108" t="n">
         <v>0.98</v>
@@ -24321,6 +24321,1096 @@
       </c>
       <c r="BP109" t="n">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8266556</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>46080.23263888889</v>
+      </c>
+      <c r="F110" t="n">
+        <v>19</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>2</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U110" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8266560</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>46081.04166666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>19</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>3</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['43', '59', '66']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S111" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X111" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>8266565</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>46081.125</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U112" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X112" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>8266562</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>46081.16666666666</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X113" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8266563</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>46081.23263888889</v>
+      </c>
+      <c r="F114" t="n">
+        <v>19</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['6', '24', '43', '70']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>
